--- a/notebooks/folding/geometry/TRR_demonstrator/WBScanCell_Nodes_Evaluation_WB308.xlsx
+++ b/notebooks/folding/geometry/TRR_demonstrator/WBScanCell_Nodes_Evaluation_WB308.xlsx
@@ -509,13 +509,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-0.0003960461763199419</v>
       </c>
       <c r="F2" t="n">
         <v>70.96464538574219</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-1.266598701477051e-07</v>
       </c>
       <c r="H2" t="n">
         <v>-2.980232238769531e-08</v>
@@ -524,13 +524,13 @@
         <v>-0.5353546142578125</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-1.266598701477051e-07</v>
       </c>
       <c r="K2" t="n">
-        <v>-2.980232238769531e-08</v>
+        <v>0.0003960163739975542</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5353546142578133</v>
+        <v>0.5353547607298508</v>
       </c>
     </row>
     <row r="3">
@@ -547,28 +547,28 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0.0003960461763199419</v>
       </c>
       <c r="F3" t="n">
         <v>-70.96464538574219</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.587935447692871e-09</v>
+        <v>-1.154839992523193e-07</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.980232238769531e-08</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0.5353546142578125</v>
       </c>
       <c r="J3" t="n">
-        <v>-5.587935447692871e-09</v>
+        <v>-1.154839992523193e-07</v>
       </c>
       <c r="K3" t="n">
-        <v>-2.980232238769531e-08</v>
+        <v>0.0003960461763199419</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5353546142578134</v>
+        <v>0.5353547607518946</v>
       </c>
     </row>
     <row r="4">
@@ -585,28 +585,28 @@
         <v>385.849365234375</v>
       </c>
       <c r="E4" t="n">
-        <v>118.888671875</v>
+        <v>118.8882751464844</v>
       </c>
       <c r="F4" t="n">
-        <v>320.9774169921875</v>
+        <v>320.9774780273438</v>
       </c>
       <c r="G4" t="n">
-        <v>392.7384033203125</v>
+        <v>392.7386169433594</v>
       </c>
       <c r="H4" t="n">
-        <v>116.6329956054688</v>
+        <v>116.633056640625</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.5225830078125</v>
+        <v>-0.52252197265625</v>
       </c>
       <c r="J4" t="n">
-        <v>6.8890380859375</v>
+        <v>6.889251708984375</v>
       </c>
       <c r="K4" t="n">
-        <v>-2.25567626953125</v>
+        <v>-2.255218505859375</v>
       </c>
       <c r="L4" t="n">
-        <v>7.267737899957468</v>
+        <v>7.267793945264498</v>
       </c>
     </row>
     <row r="5">
@@ -623,10 +623,10 @@
         <v>385.849365234375</v>
       </c>
       <c r="E5" t="n">
-        <v>118.888671875</v>
+        <v>118.8882751464844</v>
       </c>
       <c r="F5" t="n">
-        <v>-326.2037048339844</v>
+        <v>-326.2037353515625</v>
       </c>
       <c r="G5" t="n">
         <v>389.7177734375</v>
@@ -635,16 +635,16 @@
         <v>116.0683670043945</v>
       </c>
       <c r="I5" t="n">
-        <v>-4.703704833984375</v>
+        <v>-4.7037353515625</v>
       </c>
       <c r="J5" t="n">
         <v>3.868408203125</v>
       </c>
       <c r="K5" t="n">
-        <v>-2.820304870605469</v>
+        <v>-2.819908142089844</v>
       </c>
       <c r="L5" t="n">
-        <v>6.711448484076571</v>
+        <v>6.71130316804182</v>
       </c>
     </row>
     <row r="6">
@@ -661,28 +661,28 @@
         <v>-385.849365234375</v>
       </c>
       <c r="E6" t="n">
-        <v>118.888671875</v>
+        <v>118.8882751464844</v>
       </c>
       <c r="F6" t="n">
-        <v>327.0547790527344</v>
+        <v>327.0548706054688</v>
       </c>
       <c r="G6" t="n">
-        <v>-391.3323364257812</v>
+        <v>-391.33251953125</v>
       </c>
       <c r="H6" t="n">
-        <v>116.4165802001953</v>
+        <v>116.4166107177734</v>
       </c>
       <c r="I6" t="n">
-        <v>5.554779052734375</v>
+        <v>5.55487060546875</v>
       </c>
       <c r="J6" t="n">
-        <v>-5.48297119140625</v>
+        <v>-5.483154296875</v>
       </c>
       <c r="K6" t="n">
-        <v>-2.472091674804688</v>
+        <v>-2.471664428710938</v>
       </c>
       <c r="L6" t="n">
-        <v>8.187171713059774</v>
+        <v>8.187227463249968</v>
       </c>
     </row>
     <row r="7">
@@ -699,28 +699,28 @@
         <v>-385.849365234375</v>
       </c>
       <c r="E7" t="n">
-        <v>118.888671875</v>
+        <v>118.8882751464844</v>
       </c>
       <c r="F7" t="n">
-        <v>-320.674560546875</v>
+        <v>-320.6744995117188</v>
       </c>
       <c r="G7" t="n">
-        <v>-391.6185913085938</v>
+        <v>-391.6184387207031</v>
       </c>
       <c r="H7" t="n">
-        <v>116.1634521484375</v>
+        <v>116.1634216308594</v>
       </c>
       <c r="I7" t="n">
-        <v>0.825439453125</v>
+        <v>0.82550048828125</v>
       </c>
       <c r="J7" t="n">
-        <v>-5.76922607421875</v>
+        <v>-5.769073486328125</v>
       </c>
       <c r="K7" t="n">
-        <v>-2.7252197265625</v>
+        <v>-2.724853515625</v>
       </c>
       <c r="L7" t="n">
-        <v>6.433672539402839</v>
+        <v>6.433388425116321</v>
       </c>
     </row>
     <row r="8">
@@ -737,28 +737,28 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>125.0791015625</v>
+        <v>125.0787048339844</v>
       </c>
       <c r="F8" t="n">
-        <v>175.8850708007812</v>
+        <v>175.8850860595703</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8844480514526367</v>
+        <v>0.8844547271728516</v>
       </c>
       <c r="H8" t="n">
-        <v>122.3925476074219</v>
+        <v>122.3925552368164</v>
       </c>
       <c r="I8" t="n">
-        <v>2.616500854492188</v>
+        <v>2.61651611328125</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8844480514526367</v>
+        <v>0.8844547271728516</v>
       </c>
       <c r="K8" t="n">
-        <v>-2.686553955078125</v>
+        <v>-2.686149597167969</v>
       </c>
       <c r="L8" t="n">
-        <v>3.853037403247291</v>
+        <v>3.852767368249018</v>
       </c>
     </row>
     <row r="9">
@@ -775,28 +775,28 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>125.0791015625</v>
+        <v>125.0787048339844</v>
       </c>
       <c r="F9" t="n">
         <v>-176.3436584472656</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.070034980773926</v>
+        <v>-1.070011138916016</v>
       </c>
       <c r="H9" t="n">
-        <v>122.5814437866211</v>
+        <v>122.5814514160156</v>
       </c>
       <c r="I9" t="n">
         <v>-3.075088500976562</v>
       </c>
       <c r="J9" t="n">
-        <v>-1.070034980773926</v>
+        <v>-1.070011138916016</v>
       </c>
       <c r="K9" t="n">
-        <v>-2.497657775878906</v>
+        <v>-2.49725341796875</v>
       </c>
       <c r="L9" t="n">
-        <v>4.103588492323092</v>
+        <v>4.103336174358523</v>
       </c>
     </row>
     <row r="10">
@@ -813,28 +813,28 @@
         <v>381.8366088867188</v>
       </c>
       <c r="E10" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F10" t="n">
-        <v>-428.7881229053437</v>
+        <v>-428.7881805565677</v>
       </c>
       <c r="G10" t="n">
-        <v>385.6906946858594</v>
+        <v>385.6908173155495</v>
       </c>
       <c r="H10" t="n">
-        <v>-8.841894913532855</v>
+        <v>-8.841931943886038</v>
       </c>
       <c r="I10" t="n">
-        <v>-5.519553811491676</v>
+        <v>-5.519611462715716</v>
       </c>
       <c r="J10" t="n">
-        <v>3.854085799140648</v>
+        <v>3.854208428830702</v>
       </c>
       <c r="K10" t="n">
-        <v>-2.715918351032855</v>
+        <v>-2.715559129707572</v>
       </c>
       <c r="L10" t="n">
-        <v>7.259177922779336</v>
+        <v>7.259152478020455</v>
       </c>
     </row>
     <row r="11">
@@ -851,28 +851,28 @@
         <v>381.8366088867188</v>
       </c>
       <c r="E11" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F11" t="n">
-        <v>-503.0251550260727</v>
+        <v>-503.0252466551741</v>
       </c>
       <c r="G11" t="n">
-        <v>385.6906946858594</v>
+        <v>385.6908173155495</v>
       </c>
       <c r="H11" t="n">
-        <v>-8.841894913532855</v>
+        <v>-8.841931943886038</v>
       </c>
       <c r="I11" t="n">
-        <v>-8.25658593222073</v>
+        <v>-8.256677561322135</v>
       </c>
       <c r="J11" t="n">
-        <v>3.854085799140648</v>
+        <v>3.854208428830702</v>
       </c>
       <c r="K11" t="n">
-        <v>-2.715918351032855</v>
+        <v>-2.715559129707572</v>
       </c>
       <c r="L11" t="n">
-        <v>9.507965139437561</v>
+        <v>9.507991814860182</v>
       </c>
     </row>
     <row r="12">
@@ -889,28 +889,28 @@
         <v>-7.62939453125e-06</v>
       </c>
       <c r="E12" t="n">
-        <v>125.0791015625</v>
+        <v>125.0787048339844</v>
       </c>
       <c r="F12" t="n">
-        <v>-503.0251550260727</v>
+        <v>-503.0252466551741</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.6898248927903075</v>
+        <v>-0.6898221885202547</v>
       </c>
       <c r="H12" t="n">
-        <v>119.5566774746333</v>
+        <v>119.5566554571555</v>
       </c>
       <c r="I12" t="n">
-        <v>-8.256600764791244</v>
+        <v>-8.256692393892649</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.6898172633957762</v>
+        <v>-0.6898145591257234</v>
       </c>
       <c r="K12" t="n">
-        <v>-5.522424087866725</v>
+        <v>-5.522049376828917</v>
       </c>
       <c r="L12" t="n">
-        <v>9.957131708091485</v>
+        <v>9.956999685321033</v>
       </c>
     </row>
     <row r="13">
@@ -927,28 +927,28 @@
         <v>-381.8366088867188</v>
       </c>
       <c r="E13" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F13" t="n">
-        <v>-427.2511447445156</v>
+        <v>-427.2512035471744</v>
       </c>
       <c r="G13" t="n">
-        <v>-389.5548844604045</v>
+        <v>-389.5549589050474</v>
       </c>
       <c r="H13" t="n">
-        <v>-6.682366430784185</v>
+        <v>-6.682402962282822</v>
       </c>
       <c r="I13" t="n">
-        <v>-3.982575650663591</v>
+        <v>-3.982634453322419</v>
       </c>
       <c r="J13" t="n">
-        <v>-7.71827557368573</v>
+        <v>-7.718350018328692</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.5563898682841852</v>
+        <v>-0.5560301481043552</v>
       </c>
       <c r="L13" t="n">
-        <v>8.703002719185006</v>
+        <v>8.703072659689004</v>
       </c>
     </row>
     <row r="14">
@@ -965,28 +965,28 @@
         <v>-381.8366088867188</v>
       </c>
       <c r="E14" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F14" t="n">
-        <v>-503.0251550260727</v>
+        <v>-503.0252466551741</v>
       </c>
       <c r="G14" t="n">
-        <v>-389.5548844604045</v>
+        <v>-389.5549589050474</v>
       </c>
       <c r="H14" t="n">
-        <v>-6.682366430784185</v>
+        <v>-6.682402962282822</v>
       </c>
       <c r="I14" t="n">
-        <v>-8.25658593222073</v>
+        <v>-8.256677561322135</v>
       </c>
       <c r="J14" t="n">
-        <v>-7.71827557368573</v>
+        <v>-7.718350018328692</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.5563898682841852</v>
+        <v>-0.5560301481043552</v>
       </c>
       <c r="L14" t="n">
-        <v>11.3160310521414</v>
+        <v>11.31613100324824</v>
       </c>
     </row>
     <row r="15">
@@ -1003,28 +1003,28 @@
         <v>381.8366088867188</v>
       </c>
       <c r="E15" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F15" t="n">
-        <v>502.6767367218575</v>
+        <v>502.6768282989296</v>
       </c>
       <c r="G15" t="n">
-        <v>391.0603561505279</v>
+        <v>391.0604615530156</v>
       </c>
       <c r="H15" t="n">
-        <v>-10.32601917252353</v>
+        <v>-10.32603423031347</v>
       </c>
       <c r="I15" t="n">
-        <v>7.908167628005572</v>
+        <v>7.908259205077684</v>
       </c>
       <c r="J15" t="n">
-        <v>9.223747263809173</v>
+        <v>9.223852666296864</v>
       </c>
       <c r="K15" t="n">
-        <v>-4.20004261002353</v>
+        <v>-4.199661416135001</v>
       </c>
       <c r="L15" t="n">
-        <v>12.85523188220562</v>
+        <v>12.85523930832953</v>
       </c>
     </row>
     <row r="16">
@@ -1041,28 +1041,28 @@
         <v>381.8366088867188</v>
       </c>
       <c r="E16" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F16" t="n">
-        <v>422.3250828065264</v>
+        <v>422.325167391254</v>
       </c>
       <c r="G16" t="n">
-        <v>391.0603561505279</v>
+        <v>391.0604615530156</v>
       </c>
       <c r="H16" t="n">
-        <v>-10.32601917252353</v>
+        <v>-10.32603423031347</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.9434862873255838</v>
+        <v>-0.9434017025980665</v>
       </c>
       <c r="J16" t="n">
-        <v>9.223747263809173</v>
+        <v>9.223852666296864</v>
       </c>
       <c r="K16" t="n">
-        <v>-4.20004261002353</v>
+        <v>-4.199661416135001</v>
       </c>
       <c r="L16" t="n">
-        <v>10.1788033622333</v>
+        <v>10.17873375190597</v>
       </c>
     </row>
     <row r="17">
@@ -1079,28 +1079,28 @@
         <v>-7.62939453125e-06</v>
       </c>
       <c r="E17" t="n">
-        <v>125.0791015625</v>
+        <v>125.0787048339844</v>
       </c>
       <c r="F17" t="n">
-        <v>502.6767367218575</v>
+        <v>502.6768282989296</v>
       </c>
       <c r="G17" t="n">
-        <v>6.41807607599486</v>
+        <v>6.418083944377917</v>
       </c>
       <c r="H17" t="n">
-        <v>119.6012323388122</v>
+        <v>119.6012317078181</v>
       </c>
       <c r="I17" t="n">
-        <v>7.908182460576086</v>
+        <v>7.908274037648198</v>
       </c>
       <c r="J17" t="n">
-        <v>6.418083705389392</v>
+        <v>6.418091573772449</v>
       </c>
       <c r="K17" t="n">
-        <v>-5.477869223687833</v>
+        <v>-5.477473126166302</v>
       </c>
       <c r="L17" t="n">
-        <v>11.56452331533706</v>
+        <v>11.56440268893052</v>
       </c>
     </row>
     <row r="18">
@@ -1117,28 +1117,28 @@
         <v>-381.8366088867188</v>
       </c>
       <c r="E18" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F18" t="n">
-        <v>502.6767367218575</v>
+        <v>502.6768282989296</v>
       </c>
       <c r="G18" t="n">
-        <v>-383.444543192008</v>
+        <v>-383.4446346953878</v>
       </c>
       <c r="H18" t="n">
-        <v>-4.103714876998893</v>
+        <v>-4.103727927358278</v>
       </c>
       <c r="I18" t="n">
-        <v>7.908167628005572</v>
+        <v>7.908259205077684</v>
       </c>
       <c r="J18" t="n">
-        <v>-1.607934305289234</v>
+        <v>-1.608025808669026</v>
       </c>
       <c r="K18" t="n">
-        <v>2.022261685501107</v>
+        <v>2.022644886820189</v>
       </c>
       <c r="L18" t="n">
-        <v>8.319501805240925</v>
+        <v>8.319699693752259</v>
       </c>
     </row>
     <row r="19">
@@ -1155,28 +1155,28 @@
         <v>-381.8366088867188</v>
       </c>
       <c r="E19" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F19" t="n">
-        <v>434.4852618446634</v>
+        <v>434.4853478010465</v>
       </c>
       <c r="G19" t="n">
-        <v>-383.444543192008</v>
+        <v>-383.4446346953878</v>
       </c>
       <c r="H19" t="n">
-        <v>-4.103714876998893</v>
+        <v>-4.103727927358278</v>
       </c>
       <c r="I19" t="n">
-        <v>11.21669275081138</v>
+        <v>11.21677870719446</v>
       </c>
       <c r="J19" t="n">
-        <v>-1.607934305289234</v>
+        <v>-1.608025808669026</v>
       </c>
       <c r="K19" t="n">
-        <v>2.022261685501107</v>
+        <v>2.022644886820189</v>
       </c>
       <c r="L19" t="n">
-        <v>11.51039492462688</v>
+        <v>11.51055880075753</v>
       </c>
     </row>
   </sheetData>
